--- a/pred_ohlcv/54_21/2020-01-19 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16840.64005258999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>15072.82095258999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>15524.08138311999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>18801.21478311999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>14597.86168311999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>17260.06469803999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>29871.20022395999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>26971.42000084999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>29909.81125015999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>24577.97545015999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>25728.35995015999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>24766.73035015999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>25410.26055015999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>19082.27935015999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>24612.67185015999</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>24614.87185015999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>23375.11555015999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>22300.49225015999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>25882.42175015999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>27249.17465015999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>34441.64265015999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>26857.42545015999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>28655.64015015999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>28655.64015015999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>39587.20890581999</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>46504.18980581999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>57404.69240581999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>55316.15350582</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>58365.49950581999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>50923.88900581999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>48976.89130581999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>49431.18010581999</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>48133.06310581999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>44682.85305255999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>39537.37715256</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>34203.02245255999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>44032.60945255999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>197209.91784877</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>205028.29044877</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>205028.29044877</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>204740.80244877</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>203823.66464877</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>191568.70564877</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>187906.94264877</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>178344.89944877</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>177341.20794877</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>175237.76274877</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>175860.14564877</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>176741.31474877</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>176221.95684877</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>175663.14434877</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>182615.01294877</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>179633.69634877</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>176965.22304877</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>171345.44134877</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>174218.36414877</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>175058.05254877</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>174996.16904877</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>176776.75334877</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>178423.69604877</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>179742.69654877</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>187647.75204877</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>188522.85404877</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>186850.34964877</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>193805.63084877</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>192766.21594877</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>192578.96334877</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>193170.39884877</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>194065.53424877</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>194353.13125383</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>191644.74699231</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>190293.13519231</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>189626.84329231</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>184701.4459923099</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>185471.37129231</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>185864.9593923099</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>185818.72929231</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>187724.50209231</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>188951.25329231</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>25520.37189298001</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-11055.25358183999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3114.608045579987</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-6110.062945579987</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-4875.301145579987</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-4875.301145579987</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-5790.360145579987</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-5790.360145579987</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-6952.650467549987</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-7324.426967549987</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-8099.474867549987</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-7929.992267549987</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-7602.466367549987</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-7602.466367549987</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-8003.113367549987</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-55146.93436754999</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-51851.61836754999</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-35674.81924613999</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1992.202646029988</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-153514.5570518</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-161295.47606329</v>
       </c>
       <c r="H823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-141159.26311599</v>
       </c>
       <c r="H825">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-129015.24401599</v>
       </c>
       <c r="H827">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-131783.24841599</v>
       </c>
       <c r="H829">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-131548.81301599</v>
       </c>
       <c r="H830">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-128925.77818071</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-117710.06733012</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-117767.58462733</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-118935.65912733</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-110744.33732733</v>
       </c>
       <c r="H845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-107805.94016511</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-104576.22487961</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-104575.22487961</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-85192.19428151999</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-85700.01678151998</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-85700.01678151998</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-86777.40218151998</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-86691.33568151998</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-86691.33568151998</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-87037.62268151998</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-86934.10209533997</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-87694.45719533997</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-85300.32724551998</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-86040.00594551998</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-85404.43123169999</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-85291.96543169998</v>
       </c>
       <c r="H878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-84013.14123169998</v>
       </c>
       <c r="H879">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-84013.14123169998</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-84046.42393169997</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-82792.08823169998</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-82872.59583169997</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-82872.59583169997</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-82270.28823169997</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-80651.24183169997</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-80569.87302105995</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-80871.97222105994</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-81527.37762105995</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-81215.65172105994</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-86147.95952105995</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-89527.73052105994</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-90750.37932105994</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-94810.04352105994</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-94508.07522105995</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-90788.73992105994</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-90788.73992105994</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-87601.65392105994</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-88741.54932105994</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-93465.18062105993</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-92247.65919800993</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-97666.23549800993</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-95206.05379198994</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-98942.25299198994</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-97668.22569198994</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-99231.84789198994</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-98577.38259198994</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-98577.38259198994</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-98832.79179198993</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-94558.33049198994</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-95598.15199198994</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-94854.89129198994</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-94974.94999198994</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-90183.97899198993</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-89203.97899198993</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-86327.26419198993</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-83871.42099198993</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-83871.42099198993</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-86433.86659198994</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-85033.34209198994</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-86114.01829198994</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-89370.32057839994</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-89037.85427839994</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-90217.36590329994</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-71174.23452543994</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-73122.69502543994</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-44040.42682543994</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-44040.42682543994</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-41488.02682543994</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-38360.27742405994</v>
       </c>
       <c r="H994">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-29361.23512405994</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-26957.43672405994</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-26957.43672405994</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-33416.12212405994</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-36345.42602405994</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-32493.25402405994</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-35431.51322405994</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-35430.01310987994</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-40174.26150987994</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-41943.88670987995</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-42437.17060987995</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-37660.35530987995</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-37038.67440903994</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-37380.15790903995</v>
       </c>
       <c r="H1008">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-39568.12530903995</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-39558.60390903995</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-41762.24080903995</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-42295.46780903995</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-47807.56440903994</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-43956.72870903994</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-42443.10430903995</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-41589.31490903995</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-41543.31490903995</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-47445.56900903994</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-47597.31580903994</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-47725.82700903995</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-51098.70190903995</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-50670.41540903995</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-51534.66360903995</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-55052.36930903995</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-55147.54150903995</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-52203.82030903995</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-53912.09970903995</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-85423.85678588993</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-88688.46978588993</v>
       </c>
       <c r="H1105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-88688.46978588993</v>
       </c>
       <c r="H1106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-85478.93118588993</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-92869.82998588993</v>
       </c>
       <c r="H1110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-91868.38584499992</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-91695.48484499993</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-90530.53814499993</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-90630.53814499993</v>
       </c>
       <c r="H1114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-90640.53814499993</v>
       </c>
       <c r="H1115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-90580.15264499992</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-91834.06953018988</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-91857.92073018989</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-91405.92073018989</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-91394.92073018989</v>
       </c>
       <c r="H1134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-94524.95593018988</v>
       </c>
       <c r="H1135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-93817.38583018989</v>
       </c>
       <c r="H1136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-95196.29353018988</v>
       </c>
       <c r="H1137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-95957.26703018988</v>
       </c>
       <c r="H1138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-95464.50123018988</v>
       </c>
       <c r="H1139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-82880.00421941988</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-82711.91891941987</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-80213.20451941987</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-72415.22151941987</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-73865.03131941987</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-73499.77501941987</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-69255.67931941987</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-67864.67241941986</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-62508.46491941986</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-62508.46491941986</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-63975.79641941986</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-63763.41971941986</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-57734.73571941986</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-57759.73561941986</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-57612.84621941986</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-57972.51751941986</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-58683.68561941986</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-50620.51781941986</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-53040.89770701985</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-52155.47940701985</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-48403.55420701985</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-45694.35450701985</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-49673.61900701985</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-37704.61280701985</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-21767.39950701985</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-36322.46289596985</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-26197.65999596984</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-20947.68489596984</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-27289.56239596984</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-20365.84459596984</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-7039.785295969843</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-13421.72049331984</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-9384.55119331984</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-10578.67209331984</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-13406.01649331984</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-13273.98478803984</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 EOS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16840.64005258999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>15072.82095258999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>15524.08138311999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>18801.21478311999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>14597.86168311999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>17260.06469803999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>29871.20022395999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>26971.42000084999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>29909.81125015999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>24577.97545015999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>25728.35995015999</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>24766.73035015999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>25410.26055015999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>19082.27935015999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>24612.67185015999</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>24614.87185015999</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>23375.11555015999</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>22300.49225015999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>25882.42175015999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>27249.17465015999</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>34441.64265015999</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>26857.42545015999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>28655.64015015999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>28655.64015015999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>39587.20890581999</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>46504.18980581999</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>57404.69240581999</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>55316.15350582</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>58365.49950581999</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>50923.88900581999</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>48976.89130581999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>49431.18010581999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>48133.06310581999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>44682.85305255999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>39537.37715256</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>34203.02245255999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>44032.60945255999</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>193364.54124877</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>196114.36914877</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>197209.91784877</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>205028.29044877</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>205028.29044877</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>204740.80244877</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>203823.66464877</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>191568.70564877</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>187906.94264877</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>178344.89944877</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>177341.20794877</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>175237.76274877</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>175860.14564877</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>176741.31474877</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>176221.95684877</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>175663.14434877</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>182615.01294877</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>179633.69634877</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>176965.22304877</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>171345.44134877</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>174218.36414877</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>175058.05254877</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>174996.16904877</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>176776.75334877</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>178423.69604877</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>179742.69654877</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>187647.75204877</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>188522.85404877</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>186850.34964877</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>193805.63084877</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>192766.21594877</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>192578.96334877</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>193170.39884877</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>194065.53424877</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>194353.13125383</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>191644.74699231</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>190293.13519231</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>189626.84329231</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>184701.4459923099</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>25520.37189298001</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-11328.46008183999</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-11055.25358183999</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-3114.608045579987</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-6110.062945579987</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-4875.301145579987</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-4875.301145579987</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-5790.360145579987</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-5790.360145579987</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-6952.650467549987</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-7324.426967549987</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-8099.474867549987</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-7929.992267549987</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-7602.466367549987</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-7602.466367549987</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-8003.113367549987</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-55146.93436754999</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-51851.61836754999</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-35674.81924613999</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-1992.202646029988</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-153514.5570518</v>
       </c>
       <c r="H779">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-154448.3046199</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-141920.17186329</v>
       </c>
       <c r="H824">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-141159.26311599</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-129015.24401599</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-131783.24841599</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-131548.81301599</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-128925.77818071</v>
       </c>
       <c r="H832">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-127007.61488071</v>
       </c>
       <c r="H833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-117710.06733012</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-118772.71703012</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-117767.58462733</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-118935.65912733</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-110744.33732733</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-108909.45120112</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-110937.88391495</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-104175.81297189</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-111040.75657189</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-112358.49216511</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-112339.49216511</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-111911.81036511</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-113166.24536511</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-111535.26526511</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-107805.94016511</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-107837.36796511</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-104576.22487961</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-104575.22487961</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-104575.22487961</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-106903.25967961</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-104452.59768152</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-101535.84928152</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-85404.67868151997</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-87599.05408151998</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-87404.39788151998</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-85192.19428151999</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-85700.01678151998</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-85700.01678151998</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-86777.40218151998</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-86691.33568151998</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-86691.33568151998</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-87037.62268151998</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-86934.10209533997</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-87694.45719533997</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-85300.32724551998</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-86040.00594551998</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-85404.43123169999</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-85291.96543169998</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-84013.14123169998</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-84013.14123169998</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-84046.42393169997</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-82792.08823169998</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-82872.59583169997</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-82872.59583169997</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-82270.28823169997</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-80651.24183169997</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-80569.87302105995</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-80871.97222105994</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-81527.37762105995</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-78301.46302105994</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-81215.65172105994</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-86147.95952105995</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-89527.73052105994</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-90750.37932105994</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-94810.04352105994</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-94508.07522105995</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-90428.38422105994</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-90788.73992105994</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-90788.73992105994</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-87601.65392105994</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-88741.54932105994</v>
       </c>
       <c r="H932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-93465.18062105993</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-92247.65919800993</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-97666.23549800993</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-95206.05379198994</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-98942.25299198994</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-97668.22569198994</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-99231.84789198994</v>
       </c>
       <c r="H939">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-98577.38259198994</v>
       </c>
       <c r="H940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-98577.38259198994</v>
       </c>
       <c r="H941">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-98832.79179198993</v>
       </c>
       <c r="H942">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-94558.33049198994</v>
       </c>
       <c r="H943">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-95598.15199198994</v>
       </c>
       <c r="H944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-94854.89129198994</v>
       </c>
       <c r="H945">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-94974.94999198994</v>
       </c>
       <c r="H946">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-90183.97899198993</v>
       </c>
       <c r="H947">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-89203.97899198993</v>
       </c>
       <c r="H948">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-86327.26419198993</v>
       </c>
       <c r="H949">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-83871.42099198993</v>
       </c>
       <c r="H950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-83871.42099198993</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-86433.86659198994</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-85033.34209198994</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-86114.01829198994</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-89370.32057839994</v>
       </c>
       <c r="H955">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-89037.85427839994</v>
       </c>
       <c r="H956">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-90217.36590329994</v>
       </c>
       <c r="H957">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-71174.23452543994</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-73122.69502543994</v>
       </c>
       <c r="H990">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-44040.42682543994</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-44040.42682543994</v>
       </c>
       <c r="H992">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-41488.02682543994</v>
       </c>
       <c r="H993">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-38360.27742405994</v>
       </c>
       <c r="H994">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-29361.23512405994</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-26957.43672405994</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-26957.43672405994</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-33416.12212405994</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-36345.42602405994</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-32493.25402405994</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-35431.51322405994</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-35430.01310987994</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-40174.26150987994</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-41943.88670987995</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-42437.17060987995</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-37660.35530987995</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-37038.67440903994</v>
       </c>
       <c r="H1007">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26600,7 +26600,7 @@
         <v>-37380.15790903995</v>
       </c>
       <c r="H1008">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-39568.12530903995</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-39558.60390903995</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-41762.24080903995</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-42295.46780903995</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-47807.56440903994</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-43956.72870903994</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-42443.10430903995</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-41589.31490903995</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-41543.31490903995</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-47445.56900903994</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-47597.31580903994</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-47725.82700903995</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-51098.70190903995</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-50670.41540903995</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-51534.66360903995</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-55052.36930903995</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-55147.54150903995</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-52203.82030903995</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-53912.09970903995</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-60319.00090903995</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-85423.85678588993</v>
       </c>
       <c r="H1104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-88688.46978588993</v>
       </c>
       <c r="H1105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-88688.46978588993</v>
       </c>
       <c r="H1106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-85478.93118588993</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29252,7 +29252,7 @@
         <v>-92869.82998588993</v>
       </c>
       <c r="H1110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-91868.38584499992</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-91695.48484499993</v>
       </c>
       <c r="H1112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-90530.53814499993</v>
       </c>
       <c r="H1113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -29356,7 +29356,7 @@
         <v>-90630.53814499993</v>
       </c>
       <c r="H1114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:8">
@@ -29382,7 +29382,7 @@
         <v>-90640.53814499993</v>
       </c>
       <c r="H1115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-90580.15264499992</v>
       </c>
       <c r="H1116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-91834.06953018988</v>
       </c>
       <c r="H1131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-91857.92073018989</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-91405.92073018989</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -29876,7 +29876,7 @@
         <v>-91394.92073018989</v>
       </c>
       <c r="H1134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1135" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-94524.95593018988</v>
       </c>
       <c r="H1135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -29928,7 +29928,7 @@
         <v>-93817.38583018989</v>
       </c>
       <c r="H1136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137" spans="1:8">
@@ -29954,7 +29954,7 @@
         <v>-95196.29353018988</v>
       </c>
       <c r="H1137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138" spans="1:8">
@@ -29980,7 +29980,7 @@
         <v>-95957.26703018988</v>
       </c>
       <c r="H1138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:8">
@@ -30006,7 +30006,7 @@
         <v>-95464.50123018988</v>
       </c>
       <c r="H1139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1140" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-82880.00421941988</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-82711.91891941987</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-80213.20451941987</v>
       </c>
       <c r="H1181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-72415.22151941987</v>
       </c>
       <c r="H1182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-73865.03131941987</v>
       </c>
       <c r="H1183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-73499.77501941987</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-69255.67931941987</v>
       </c>
       <c r="H1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-62507.37551941987</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-67864.67241941986</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-62508.46491941986</v>
       </c>
       <c r="H1190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-62508.46491941986</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-63975.79641941986</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-63763.41971941986</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-57734.73571941986</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-57759.73561941986</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-57612.84621941986</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-57972.51751941986</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-58683.68561941986</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-50620.51781941986</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-53040.89770701985</v>
       </c>
       <c r="H1213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-52155.47940701985</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-48403.55420701985</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-45694.35450701985</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-49673.61900701985</v>
       </c>
       <c r="H1217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-37704.61280701985</v>
       </c>
       <c r="H1218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-21767.39950701985</v>
       </c>
       <c r="H1219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-36322.46289596985</v>
       </c>
       <c r="H1220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-26197.65999596984</v>
       </c>
       <c r="H1221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-20947.68489596984</v>
       </c>
       <c r="H1222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-27289.56239596984</v>
       </c>
       <c r="H1223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-20365.84459596984</v>
       </c>
       <c r="H1224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-7039.785295969843</v>
       </c>
       <c r="H1225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-13421.72049331984</v>
       </c>
       <c r="H1267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-9384.55119331984</v>
       </c>
       <c r="H1268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-10578.67209331984</v>
       </c>
       <c r="H1269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-13406.01649331984</v>
       </c>
       <c r="H1270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-13273.98478803984</v>
       </c>
       <c r="H1271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
